--- a/DesignDocuments/(5Team) Interface Design Document.xlsx
+++ b/DesignDocuments/(5Team) Interface Design Document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" activeTab="1"/>
+    <workbookView xWindow="6960" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ParkingSlot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,32 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>messagetype (string)
-result (string)
-parkinglot_id (string)
-reservation_time (string)
-parkinglot_location (string)
-parkingfee (string)
-graceperiod (string)
-paymentinfo (string)
-confirmationinfo (string)
-timestamp (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"messagetype" : "Reservation_Request",
-"result" : "ok",
-"parkinglot_id" : "1",
-"reservation_time" : "2016:06:24:12:00",
-"parkinglot_location" : "811 S Negley Pittsburgh",
-"parkingfee" : "5.99",
-"graceperiod" : "120",
-"paymentinfo" : "2222333344445555",
-"configrmationinfo" : "sanghee, aabbccdd",
-"timestamp" : 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"messagetype" : "ParkingLot_Information",
 "parkinglot_number" : 3,
 "parkinglot_id" : {"1", "2", "3"},
@@ -527,6 +501,56 @@
 "reservation_time" : "2016:06:24:12:00",
 "paymentinfo" : "2222333344445555",
 "timestamp" : 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+reservation_id (string)
+reservation_time (string)
+parkinglot_id (string)
+parkinglot_location (string)
+parkingfee (string)
+graceperiod (string)
+paymentinfo (string)
+confirmationinfo (string)
+timestamp (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"result" : "ok",
+"reservation_id" : "12",
+"reservation_time" : "2016:06:24:12:00",
+"parkinglot_id" : "1",
+"parkinglot_location" : "811 S Negley Pittsburgh",
+"parkingfee" : "5.99",
+"graceperiod" : "120",
+"paymentinfo" : "2222333344445555",
+"configrmationinfo" : "sanghee, aabbccdd",
+"timestamp" : 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel_Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetype (string)
+result (string)
+reservation_id (string)
+timestamp (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"messagetype" : "Reservation_Request",
+"result" : "cancelled",
+"reservation_id" : "000111000111",
+"timestamp" : 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelled or not cancelled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -597,13 +621,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1559,7 +1597,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1631,13 +1669,13 @@
         <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1648,13 +1686,13 @@
         <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -1665,13 +1703,13 @@
         <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1682,13 +1720,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1702,7 +1740,7 @@
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1736,7 +1774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="165" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1744,30 +1782,50 @@
         <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>83</v>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
